--- a/public/manuscript/EDA.xlsx
+++ b/public/manuscript/EDA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hunting\2023\data_project\credit_card_default_analysis\public\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hunting\data_project\credit_card_default_analysis\public\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E842D9E3-4AF2-43CC-BD68-7CCFEB1D06A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C981236-3FA3-46CD-A14A-D13327B9E677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -261,7 +261,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -554,25 +554,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="11.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1"/>
+    <col min="6" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -608,7 +607,7 @@
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -631,7 +630,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -650,7 +649,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -669,7 +668,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
@@ -704,7 +703,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -739,7 +738,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
@@ -758,7 +757,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
@@ -777,7 +776,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
@@ -796,7 +795,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
@@ -815,7 +814,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
@@ -834,7 +833,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
@@ -853,7 +852,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -888,7 +887,7 @@
         <v>964511</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -923,7 +922,7 @@
         <v>983931</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
@@ -958,7 +957,7 @@
         <v>1664089</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
@@ -993,7 +992,7 @@
         <v>891586</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1028,7 +1027,7 @@
         <v>927171</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>961664</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
@@ -1098,7 +1097,7 @@
         <v>873552</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>46</v>
       </c>
@@ -1133,7 +1132,7 @@
         <v>1684259</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
@@ -1168,7 +1167,7 @@
         <v>896040</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>621000</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
@@ -1238,7 +1237,7 @@
         <v>426529</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
